--- a/assets/all-flash-calculator.xlsx
+++ b/assets/all-flash-calculator.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken/repos/aerospike-ansible/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BB9228-E6F6-2841-8EB7-6A7CDB6238D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32AD55A-3E34-5F46-986F-696D4466FBA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{071011FB-609B-454D-B77B-CC151657AF81}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="all-flash-calc" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="AllFlashOverheadPerRecord">Sheet1!$B$14</definedName>
+    <definedName name="AllFlashOverheadPerRecord">'all-flash-calc'!$C$15</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,8 +153,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="9" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,7 +251,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -259,9 +272,6 @@
     <xf numFmtId="2" fontId="6" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -271,6 +281,13 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -588,183 +605,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF4F74F-63FC-DF45-AE15-E89FA7DB5F3C}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="19" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="10.83203125" style="10"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="3.83203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>10900</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C3" s="3">
         <v>4096</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C5" s="3">
         <v>4096</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="17"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C7" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="C8" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
-        <f>B1/(B6*B7)</f>
-        <v>340.625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="C9" s="5">
+        <f>C2/(C7*C8)</f>
+        <v>3.125</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
-        <f>B8/4096*10^6</f>
-        <v>83160.400390625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="C10" s="5">
+        <f>C9/4096*10^6</f>
+        <v>762.939453125</v>
+      </c>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
-        <f>2^CEILING(LN(B9)/LN(2),1)</f>
-        <v>131072</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="C11" s="6">
+        <f>2^CEILING(LN(C10)/LN(2),1)</f>
+        <v>1024</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="17"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5">
-        <f>B4*B10*B3*B2/1024^3</f>
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="C13" s="5">
+        <f>C5*C11*C4*C3/1024^3</f>
+        <v>32</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="17"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5">
-        <f>CEILING(B12 * 1024^3/(B1 * 10^6)/B3,1)</f>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="C15" s="5">
+        <f>CEILING(C13 * 1024^3/(C2 * 10^6)/C4,1)</f>
+        <v>172</v>
+      </c>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="15"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="4">
+      <c r="C17" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C19" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="5">
-        <f>AllFlashOverheadPerRecord+B18</f>
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="C20" s="5">
+        <f>AllFlashOverheadPerRecord+C19</f>
+        <v>1196</v>
+      </c>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="5">
-        <f>B19+B18</f>
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="C21" s="5">
+        <f>C20+C19</f>
+        <v>2220</v>
+      </c>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="15"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="7">
-        <f>B20*B1*10^6/10^12</f>
-        <v>24.524999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="C23" s="7">
+        <f>C21*C2*10^6/10^12</f>
+        <v>0.222</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="15"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="7">
-        <f>CEILING(B20/AllFlashOverheadPerRecord,1)</f>
-        <v>12</v>
-      </c>
+      <c r="C25" s="7">
+        <f>CEILING(C21/AllFlashOverheadPerRecord,1)</f>
+        <v>13</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="E27" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/all-flash-calculator.xlsx
+++ b/assets/all-flash-calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken/repos/aerospike-ansible/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32AD55A-3E34-5F46-986F-696D4466FBA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22EA900-AD5A-8F4F-9DDC-30AE747EF23E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{071011FB-609B-454D-B77B-CC151657AF81}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Rounded Sprigs per partition</t>
   </si>
   <si>
-    <t>Overhead per per record</t>
-  </si>
-  <si>
     <t>Free disk pct</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Partitions Per Device</t>
+  </si>
+  <si>
+    <t>Overhead per per record (bytes)</t>
   </si>
 </sst>
 </file>
@@ -608,13 +608,13 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="19" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.83203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="14" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="9" customWidth="1"/>
@@ -646,7 +646,7 @@
         <v>4096</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.25">
@@ -658,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>4096</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5">
         <f>C5*C11*C4*C3/1024^3</f>
@@ -755,7 +755,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="12" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C15" s="5">
         <f>CEILING(C13 * 1024^3/(C2 * 10^6)/C4,1)</f>
@@ -771,7 +771,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="4">
         <v>0.5</v>
@@ -786,7 +786,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1">
         <v>1024</v>
@@ -796,7 +796,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="5">
         <f>AllFlashOverheadPerRecord+C19</f>
@@ -807,7 +807,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="5">
         <f>C20+C19</f>
@@ -823,7 +823,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="7">
         <f>C21*C2*10^6/10^12</f>
@@ -839,7 +839,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
         <f>CEILING(C21/AllFlashOverheadPerRecord,1)</f>
